--- a/static/DATACSV.xlsx
+++ b/static/DATACSV.xlsx
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="64">
   <si>
     <t xml:space="preserve">Acima de</t>
   </si>
@@ -167,9 +167,15 @@
     <t xml:space="preserve">-0,004</t>
   </si>
   <si>
+    <t xml:space="preserve">N9</t>
+  </si>
+  <si>
     <t xml:space="preserve">+0,012</t>
   </si>
   <si>
+    <t xml:space="preserve">JS9</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0,006</t>
   </si>
   <si>
@@ -236,7 +242,28 @@
     <t xml:space="preserve">+0,062</t>
   </si>
   <si>
+    <t xml:space="preserve">+0,180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0,080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,062</t>
+  </si>
+  <si>
     <t xml:space="preserve">+0,074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0,220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0,100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0,087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0,260</t>
   </si>
 </sst>
 </file>
@@ -494,7 +521,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,19 +579,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -596,19 +619,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -644,19 +663,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -676,19 +687,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -700,19 +703,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -720,19 +719,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -747,8 +746,16 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -756,43 +763,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -872,30 +867,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -938,46 +935,50 @@
       <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1025,132 +1026,144 @@
       <c r="N2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="15" t="n">
         <v>-0.013</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="12" t="n">
         <v>-0.031</v>
       </c>
-      <c r="R2" s="11" t="str">
-        <f aca="false">P2</f>
+      <c r="T2" s="11" t="str">
+        <f aca="false">R2</f>
         <v>-0,006</v>
       </c>
-      <c r="S2" s="12" t="n">
-        <f aca="false">Q2</f>
+      <c r="U2" s="12" t="n">
+        <f aca="false">S2</f>
         <v>-0.031</v>
       </c>
-      <c r="T2" s="18" t="n">
+      <c r="V2" s="17" t="n">
         <v>1.2</v>
       </c>
-      <c r="U2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="20" t="n">
+      <c r="Z2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19" t="n">
         <v>0.16</v>
       </c>
-      <c r="AA2" s="20" t="n">
+      <c r="AC2" s="19" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="20" t="n">
         <f aca="false">B2</f>
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="n">
+      <c r="E3" s="20" t="n">
         <f aca="false">C3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="22" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="26" t="n">
+      <c r="M3" s="25" t="n">
         <v>-0.029</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="28" t="n">
+      <c r="O3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="25" t="n">
         <v>-0.013</v>
       </c>
-      <c r="P3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="23" t="n">
+      <c r="Q3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="22" t="n">
         <v>-0.031</v>
       </c>
-      <c r="R3" s="22" t="str">
-        <f aca="false">P3</f>
+      <c r="T3" s="21" t="str">
+        <f aca="false">R3</f>
         <v>-0,006</v>
       </c>
-      <c r="S3" s="23" t="n">
-        <f aca="false">Q3</f>
+      <c r="U3" s="22" t="n">
+        <f aca="false">S3</f>
         <v>-0.031</v>
       </c>
-      <c r="T3" s="29" t="n">
+      <c r="V3" s="27" t="n">
         <v>1.8</v>
       </c>
-      <c r="U3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="32" t="n">
+      <c r="W3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="30" t="n">
         <v>1.4</v>
       </c>
-      <c r="X3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="33" t="n">
+      <c r="Z3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="31" t="n">
         <v>0.16</v>
       </c>
-      <c r="AA3" s="33" t="n">
+      <c r="AC3" s="31" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1173,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>0</v>
@@ -1181,150 +1194,162 @@
       <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>34</v>
+      <c r="I4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" s="15" t="n">
         <v>-0.03</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="15" t="n">
         <v>-0.015</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="12" t="n">
         <v>-0.042</v>
       </c>
-      <c r="R4" s="11" t="str">
-        <f aca="false">P4</f>
+      <c r="T4" s="11" t="str">
+        <f aca="false">R4</f>
         <v>-0,012</v>
       </c>
-      <c r="S4" s="12" t="n">
-        <f aca="false">Q4</f>
+      <c r="U4" s="12" t="n">
+        <f aca="false">S4</f>
         <v>-0.042</v>
       </c>
-      <c r="T4" s="18" t="n">
+      <c r="V4" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="X4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="20" t="n">
+      <c r="Z4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19" t="n">
         <v>0.16</v>
       </c>
-      <c r="AA4" s="20" t="n">
+      <c r="AC4" s="19" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="20" t="n">
         <f aca="false">B4</f>
         <v>12</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="20" t="n">
         <f aca="false">C5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="31" t="n">
+      <c r="F5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>34</v>
+      <c r="I5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="38" t="n">
+      <c r="L5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="36" t="n">
         <v>-0.03</v>
       </c>
-      <c r="N5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="40" t="n">
+      <c r="N5" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="36" t="n">
         <v>-0.015</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="31" t="n">
+      <c r="Q5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="29" t="n">
         <v>-0.042</v>
       </c>
-      <c r="R5" s="30" t="str">
-        <f aca="false">P5</f>
+      <c r="T5" s="28" t="str">
+        <f aca="false">R5</f>
         <v>-0,012</v>
       </c>
-      <c r="S5" s="31" t="n">
-        <f aca="false">Q5</f>
+      <c r="U5" s="29" t="n">
+        <f aca="false">S5</f>
         <v>-0.042</v>
       </c>
-      <c r="T5" s="29" t="n">
+      <c r="V5" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="U5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="32" t="n">
+      <c r="W5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="30" t="n">
         <v>2.3</v>
       </c>
-      <c r="X5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="33" t="n">
+      <c r="Z5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA5" s="33" t="n">
+      <c r="AC5" s="31" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1346,157 +1371,169 @@
         <f aca="false">C6</f>
         <v>6</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="42" t="n">
+      <c r="F6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="38" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>34</v>
+      <c r="I6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="46" t="n">
+      <c r="L6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="42" t="n">
         <v>-0.03</v>
       </c>
-      <c r="N6" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="48" t="n">
+      <c r="N6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="42" t="n">
         <v>-0.015</v>
       </c>
-      <c r="P6" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="42" t="n">
+      <c r="Q6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="38" t="n">
         <v>-0.042</v>
       </c>
-      <c r="R6" s="41" t="str">
-        <f aca="false">P6</f>
+      <c r="T6" s="37" t="str">
+        <f aca="false">R6</f>
         <v>-0,012</v>
       </c>
-      <c r="S6" s="42" t="n">
-        <f aca="false">Q6</f>
+      <c r="U6" s="38" t="n">
+        <f aca="false">S6</f>
         <v>-0.042</v>
       </c>
-      <c r="T6" s="18" t="n">
+      <c r="V6" s="17" t="n">
         <v>3.5</v>
       </c>
-      <c r="U6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="X6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="20" t="n">
+      <c r="Z6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA6" s="20" t="n">
+      <c r="AC6" s="19" t="n">
         <v>0.16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="20" t="n">
         <f aca="false">B6</f>
         <v>22</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="20" t="n">
         <f aca="false">C7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="31" t="n">
+      <c r="F7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>41</v>
+      <c r="I7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="52" t="n">
+      <c r="L7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="29" t="n">
         <v>-0.036</v>
       </c>
-      <c r="N7" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30" t="n">
-        <f aca="false">P7</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="31" t="n">
-        <f aca="false">Q7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="29" t="n">
+      <c r="N7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="28" t="n">
+        <f aca="false">R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="29" t="n">
+        <f aca="false">S7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="U7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="32" t="n">
+      <c r="W7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="30" t="n">
         <v>3.3</v>
       </c>
-      <c r="X7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="33" t="n">
+      <c r="Z7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="31" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA7" s="33" t="n">
+      <c r="AC7" s="31" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1518,155 +1555,167 @@
         <f aca="false">C8</f>
         <v>10</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="42" t="n">
+      <c r="F8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="38" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>41</v>
+      <c r="I8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="57" t="n">
+      <c r="L8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="50" t="n">
         <v>-0.036</v>
       </c>
-      <c r="N8" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="41" t="n">
-        <f aca="false">P8</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="42" t="n">
-        <f aca="false">Q8</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="18" t="n">
+      <c r="N8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="37"/>
+      <c r="S8" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37" t="n">
+        <f aca="false">R8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="38" t="n">
+        <f aca="false">S8</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="X8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20" t="n">
+      <c r="Z8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA8" s="20" t="n">
+      <c r="AC8" s="19" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="20" t="n">
         <f aca="false">B8</f>
         <v>38</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="20" t="n">
         <v>44</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="20" t="n">
         <f aca="false">C9</f>
         <v>12</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="31" t="n">
+      <c r="F9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>45</v>
+      <c r="I9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30" t="n">
-        <f aca="false">P9</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="31" t="n">
-        <f aca="false">Q9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="29" t="n">
+      <c r="L9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="36" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28" t="n">
+        <f aca="false">R9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="29" t="n">
+        <f aca="false">S9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="U9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="32" t="n">
+      <c r="W9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="30" t="n">
         <v>3.3</v>
       </c>
-      <c r="X9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="33" t="n">
+      <c r="Z9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA9" s="33" t="n">
+      <c r="AC9" s="31" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1689,154 +1738,166 @@
         <v>14</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="35" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11" t="n">
-        <f aca="false">P10</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="35" t="n">
-        <f aca="false">Q10</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11" t="n">
+        <f aca="false">R10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="33" t="n">
+        <f aca="false">S10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="17" t="n">
         <v>5.5</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="X10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20" t="n">
+      <c r="Z10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="20" t="n">
+      <c r="AC10" s="19" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="20" t="n">
         <f aca="false">B10</f>
         <v>50</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="20" t="n">
         <v>58</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="20" t="n">
         <f aca="false">C11</f>
         <v>16</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="31" t="n">
+      <c r="F11" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>45</v>
+      <c r="I11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30" t="n">
-        <f aca="false">P11</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="31" t="n">
-        <f aca="false">Q11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="29" t="n">
+      <c r="L11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="36" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="28" t="n">
+        <f aca="false">R11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="29" t="n">
+        <f aca="false">S11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="U11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="32" t="n">
+      <c r="W11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="30" t="n">
         <v>4.3</v>
       </c>
-      <c r="X11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="33" t="n">
+      <c r="Z11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="AA11" s="33" t="n">
+      <c r="AC11" s="31" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1858,154 +1919,166 @@
         <f aca="false">C12</f>
         <v>18</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="42" t="n">
+      <c r="F12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="38" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>45</v>
+      <c r="I12" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="41" t="n">
-        <f aca="false">P12</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="42" t="n">
-        <f aca="false">Q12</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="18" t="n">
+      <c r="L12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="42" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="37"/>
+      <c r="S12" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37" t="n">
+        <f aca="false">R12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="38" t="n">
+        <f aca="false">S12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="U12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20" t="n">
+      <c r="W12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="20" t="n">
         <f aca="false">B12</f>
         <v>65</v>
       </c>
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="20" t="n">
         <v>75</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C13" s="20" t="n">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="20" t="n">
         <f aca="false">C13</f>
         <v>20</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="31" t="n">
+      <c r="F13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>48</v>
+      <c r="I13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="37" t="n">
+      <c r="L13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="56" t="n">
         <v>-0.052</v>
       </c>
-      <c r="N13" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="30" t="s">
+      <c r="N13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="P13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="30" t="str">
-        <f aca="false">P13</f>
+      <c r="Q13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="28" t="str">
+        <f aca="false">R13</f>
         <v>-0,022</v>
       </c>
-      <c r="S13" s="31" t="str">
-        <f aca="false">Q13</f>
+      <c r="U13" s="29" t="str">
+        <f aca="false">S13</f>
         <v>-0,074</v>
       </c>
-      <c r="T13" s="29" t="n">
+      <c r="V13" s="27" t="n">
         <v>7.5</v>
       </c>
-      <c r="U13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="32" t="n">
+      <c r="W13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30" t="n">
         <v>4.9</v>
       </c>
-      <c r="X13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="33" t="n">
+      <c r="Z13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA13" s="33" t="n">
+      <c r="AC13" s="31" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2028,158 +2101,170 @@
         <v>22</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="35" t="n">
+        <v>48</v>
+      </c>
+      <c r="G14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="60" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="14" t="n">
+        <v>38</v>
+      </c>
+      <c r="M14" s="58" t="n">
         <v>-0.052</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="N14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="P14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R14" s="11" t="str">
-        <f aca="false">P14</f>
+      <c r="Q14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f aca="false">R14</f>
         <v>-0,022</v>
       </c>
-      <c r="S14" s="35" t="str">
-        <f aca="false">Q14</f>
+      <c r="U14" s="33" t="str">
+        <f aca="false">S14</f>
         <v>-0,074</v>
       </c>
-      <c r="T14" s="64" t="n">
+      <c r="V14" s="59" t="n">
         <v>9</v>
       </c>
-      <c r="U14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="0" t="n">
+      <c r="W14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="0" t="n">
         <v>5.4</v>
       </c>
-      <c r="X14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="20" t="n">
+      <c r="Z14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="19" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA14" s="20" t="n">
+      <c r="AC14" s="19" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="20" t="n">
         <f aca="false">B14</f>
         <v>85</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="20" t="n">
         <v>95</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="20" t="n">
         <v>25</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="20" t="n">
         <f aca="false">C15</f>
         <v>25</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="31" t="n">
+      <c r="F15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>48</v>
+      <c r="I15" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="37" t="n">
+      <c r="L15" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="56" t="n">
         <v>-0.052</v>
       </c>
-      <c r="N15" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="30" t="s">
+      <c r="N15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="31" t="s">
+      <c r="P15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="30" t="str">
-        <f aca="false">P15</f>
+      <c r="Q15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="28" t="str">
+        <f aca="false">R15</f>
         <v>-0,022</v>
       </c>
-      <c r="S15" s="31" t="str">
-        <f aca="false">Q15</f>
+      <c r="U15" s="29" t="str">
+        <f aca="false">S15</f>
         <v>-0,074</v>
       </c>
-      <c r="T15" s="29" t="n">
+      <c r="V15" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="U15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="V15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="32" t="n">
+      <c r="W15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30" t="n">
         <v>5.4</v>
       </c>
-      <c r="X15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="33" t="n">
+      <c r="Z15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA15" s="33" t="n">
+      <c r="AC15" s="31" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2201,159 +2286,171 @@
         <f aca="false">C16</f>
         <v>28</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="35" t="n">
+      <c r="F16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="38" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="65" t="n">
+      <c r="L16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="42" t="n">
         <v>-0.052</v>
       </c>
-      <c r="N16" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="11" t="s">
+      <c r="N16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="P16" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="11" t="str">
-        <f aca="false">P16</f>
+      <c r="Q16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="11" t="str">
+        <f aca="false">R16</f>
         <v>-0,022</v>
       </c>
-      <c r="S16" s="35" t="str">
-        <f aca="false">Q16</f>
+      <c r="U16" s="33" t="str">
+        <f aca="false">S16</f>
         <v>-0,074</v>
       </c>
-      <c r="T16" s="18" t="n">
+      <c r="V16" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="U16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="X16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="20" t="n">
+      <c r="Z16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="19" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA16" s="20" t="n">
+      <c r="AC16" s="19" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="20" t="n">
         <f aca="false">B16</f>
         <v>110</v>
       </c>
-      <c r="B17" s="21" t="n">
+      <c r="B17" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="E17" s="67" t="n">
+      <c r="E17" s="62" t="n">
         <f aca="false">C17</f>
         <v>32</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="31" t="n">
+      <c r="F17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="31" t="n">
-        <v>0</v>
+      <c r="I17" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="30" t="str">
-        <f aca="false">P17</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="31" t="n">
-        <f aca="false">Q17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="29" t="n">
+      <c r="L17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="29" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="28" t="str">
+        <f aca="false">R17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="29" t="n">
+        <f aca="false">S17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="U17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="32" t="n">
+      <c r="W17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="30" t="n">
         <v>7.4</v>
       </c>
-      <c r="X17" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y17" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="33" t="n">
+      <c r="Z17" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="31" t="n">
         <v>0.6</v>
       </c>
-      <c r="AA17" s="33" t="n">
+      <c r="AC17" s="31" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2376,158 +2473,170 @@
         <v>36</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="35" t="n">
+        <v>55</v>
+      </c>
+      <c r="G18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35" t="n">
-        <v>0</v>
+      <c r="I18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="35" t="n">
-        <v>0</v>
+      <c r="L18" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="61" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R18" s="11" t="n">
-        <f aca="false">P18</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="35" t="n">
-        <f aca="false">Q18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11" t="n">
+        <f aca="false">R18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="33" t="n">
+        <f aca="false">S18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
+      <c r="A19" s="20" t="n">
         <f aca="false">B18</f>
         <v>150</v>
       </c>
-      <c r="B19" s="21" t="n">
+      <c r="B19" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="E19" s="67" t="n">
+      <c r="E19" s="62" t="n">
         <f aca="false">C19</f>
         <v>40</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="31" t="n">
+      <c r="F19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="31" t="n">
-        <v>0</v>
+      <c r="I19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="30" t="str">
-        <f aca="false">P19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="31" t="n">
-        <f aca="false">Q19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y19" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="33" t="n">
+      <c r="L19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="29" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="28" t="str">
+        <f aca="false">R19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="29" t="n">
+        <f aca="false">S19</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2550,158 +2659,170 @@
         <v>45</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="35" t="n">
+        <v>55</v>
+      </c>
+      <c r="G20" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="35" t="n">
-        <v>0</v>
+      <c r="I20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="35" t="n">
-        <v>0</v>
+      <c r="L20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R20" s="11" t="n">
-        <f aca="false">P20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="35" t="n">
-        <f aca="false">Q20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11" t="n">
+        <f aca="false">R20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="33" t="n">
+        <f aca="false">S20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="20" t="n">
         <f aca="false">B20</f>
         <v>200</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="20" t="n">
         <v>28</v>
       </c>
-      <c r="E21" s="67" t="n">
+      <c r="E21" s="62" t="n">
         <f aca="false">C21</f>
         <v>50</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="31" t="n">
+      <c r="F21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="31" t="n">
-        <v>0</v>
+      <c r="I21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="30" t="str">
-        <f aca="false">P21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="31" t="n">
-        <f aca="false">Q21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y21" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="33" t="n">
+      <c r="L21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="25" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="28" t="str">
+        <f aca="false">R21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="29" t="n">
+        <f aca="false">S21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2724,158 +2845,170 @@
         <v>56</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="35" t="n">
+        <v>59</v>
+      </c>
+      <c r="G22" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="35" t="n">
-        <v>0</v>
+      <c r="I22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="35" t="n">
-        <v>0</v>
+      <c r="L22" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="61" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R22" s="11" t="n">
-        <f aca="false">P22</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="35" t="n">
-        <f aca="false">Q22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11" t="n">
+        <f aca="false">R22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="33" t="n">
+        <f aca="false">S22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="20" t="n">
         <f aca="false">B22</f>
         <v>260</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="20" t="n">
         <v>290</v>
       </c>
-      <c r="C23" s="21" t="n">
+      <c r="C23" s="20" t="n">
         <v>63</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="E23" s="67" t="n">
+      <c r="E23" s="62" t="n">
         <f aca="false">C23</f>
         <v>63</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="31" t="n">
+      <c r="F23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="31" t="n">
-        <v>0</v>
+      <c r="I23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="30" t="str">
-        <f aca="false">P23</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="31" t="n">
-        <f aca="false">Q23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y23" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="33" t="n">
+      <c r="L23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="29" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="28" t="str">
+        <f aca="false">R23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="29" t="n">
+        <f aca="false">S23</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA23" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2898,158 +3031,170 @@
         <v>70</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="35" t="n">
+        <v>59</v>
+      </c>
+      <c r="G24" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="35" t="n">
-        <v>0</v>
+      <c r="I24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="35" t="n">
-        <v>0</v>
+      <c r="L24" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="61" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R24" s="11" t="n">
-        <f aca="false">P24</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="35" t="n">
-        <f aca="false">Q24</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="11" t="n">
+        <f aca="false">R24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="33" t="n">
+        <f aca="false">S24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
+      <c r="A25" s="20" t="n">
         <f aca="false">B24</f>
         <v>330</v>
       </c>
-      <c r="B25" s="21" t="n">
+      <c r="B25" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="C25" s="21" t="n">
+      <c r="C25" s="20" t="n">
         <v>80</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="20" t="n">
         <f aca="false">C25</f>
         <v>80</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="31" t="n">
+      <c r="F25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="31" t="n">
-        <v>0</v>
+      <c r="I25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>61</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="30" t="str">
-        <f aca="false">P25</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="31" t="n">
-        <f aca="false">Q25</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y25" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="33" t="n">
+      <c r="L25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="25" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="28" t="str">
+        <f aca="false">R25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="29" t="n">
+        <f aca="false">S25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA25" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="31" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA25" s="33" t="n">
+      <c r="AC25" s="31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3072,159 +3217,183 @@
         <v>90</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="35" t="n">
+        <v>62</v>
+      </c>
+      <c r="G26" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="35" t="n">
-        <v>0</v>
+      <c r="I26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="35" t="n">
-        <v>0</v>
+      <c r="L26" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="61" t="n">
+        <v>-0.087</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="R26" s="11" t="n">
-        <f aca="false">P26</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="35" t="n">
-        <f aca="false">Q26</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="11" t="n">
+        <f aca="false">R26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="33" t="n">
+        <f aca="false">S26</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="19" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA26" s="20" t="n">
+      <c r="AC26" s="19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="20" t="n">
         <f aca="false">B26</f>
         <v>440</v>
       </c>
-      <c r="B27" s="21" t="n">
+      <c r="B27" s="20" t="n">
         <v>500</v>
       </c>
-      <c r="C27" s="21" t="n">
+      <c r="C27" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="20" t="n">
         <f aca="false">C27</f>
         <v>100</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="31" t="n">
+      <c r="F27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="31" t="n">
-        <v>0</v>
+      <c r="I27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="30" t="str">
-        <f aca="false">P27</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="31" t="n">
-        <f aca="false">Q27</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y27" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="33" t="n">
+      <c r="L27" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="29" t="n">
+        <v>-0.087</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="28" t="str">
+        <f aca="false">R27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="29" t="n">
+        <f aca="false">S27</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="31" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA27" s="33" t="n">
+      <c r="AC27" s="31" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="0" t="n">
+        <f aca="false">1/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="0" t="n">
+        <f aca="false">4.3/100</f>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
